--- a/AnalysisCode_python/Outputs/Emission_Summary_SAN JOAQUINout.xlsx
+++ b/AnalysisCode_python/Outputs/Emission_Summary_SAN JOAQUINout.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.000693228432969005</v>
+        <v>0.0007053081290159999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006652575120139995</v>
+        <v>0.00662138065110683</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.7116469209745e-05</v>
+        <v>4.506663342148e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00137623389156615</v>
+        <v>0.00136816629102326</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1.57614738e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>2.252398647999999e-07</v>
+        <v>3.3831261985e-07</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.93040031e-07</v>
+        <v>5.18456918975e-07</v>
       </c>
       <c r="C5" t="n">
-        <v>1.883245444765e-06</v>
+        <v>2.6042171548e-06</v>
       </c>
     </row>
     <row r="6">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.462251222549999e-07</v>
+        <v>6.0440677405e-08</v>
       </c>
       <c r="C7" t="n">
-        <v>9.750650318995e-06</v>
+        <v>8.164989343935e-06</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.0511638715e-06</v>
+        <v>3.774556729975e-06</v>
       </c>
       <c r="C8" t="n">
-        <v>2.904813492085e-05</v>
+        <v>2.333450953515e-05</v>
       </c>
     </row>
     <row r="9">
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>3.7851609965e-08</v>
+        <v>3.695169479999999e-08</v>
       </c>
     </row>
     <row r="10">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.07191229e-07</v>
+        <v>1.2773102e-08</v>
       </c>
       <c r="C12" t="n">
-        <v>7.740532661999998e-07</v>
+        <v>4.6947601225e-07</v>
       </c>
     </row>
     <row r="13">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.764482333207317e-05</v>
+        <v>1.255530212445122e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003008863959256708</v>
+        <v>0.002959406811388232</v>
       </c>
     </row>
     <row r="18">
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001676166968669555</v>
+        <v>0.0001285780813112989</v>
       </c>
     </row>
     <row r="19">
